--- a/emr/exports/templates/easynut-list.xlsx
+++ b/emr/exports/templates/easynut-list.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
   <si>
     <t>NR</t>
   </si>
@@ -265,13 +265,25 @@
   </si>
   <si>
     <t>01#01</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>01#21</t>
+  </si>
+  <si>
+    <t>07#03</t>
+  </si>
+  <si>
+    <t>07#04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +313,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -383,7 +406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -401,8 +424,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -437,8 +462,12 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -447,6 +476,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -455,6 +485,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,52 +781,54 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1029,8 +1062,20 @@
       <c r="I3" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
